--- a/sourcematrix.xlsx
+++ b/sourcematrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E026928\Documents\GitHub\misc\ossint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e026928\Documents\GitHub\osint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="81">
   <si>
     <t>Source Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>malwared.ru</t>
   </si>
   <si>
-    <t>MalwareD</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -276,6 +273,39 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>malwaregroup</t>
+  </si>
+  <si>
+    <t>Fire Eye</t>
+  </si>
+  <si>
+    <t>Emerging Threats</t>
+  </si>
+  <si>
+    <t>Malware INT</t>
+  </si>
+  <si>
+    <t>Didier Stevens</t>
+  </si>
+  <si>
+    <t>Trend Micro</t>
+  </si>
+  <si>
+    <t>Jorge Mieres</t>
+  </si>
+  <si>
+    <t>Team Cymru</t>
+  </si>
+  <si>
+    <t>Paretologic</t>
+  </si>
+  <si>
+    <t>Clean MX</t>
+  </si>
+  <si>
+    <t>Scumware</t>
   </si>
 </sst>
 </file>
@@ -377,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -410,12 +440,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,7 +730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +743,7 @@
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -734,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -784,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" t="s">
@@ -800,11 +829,13 @@
         <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>39</v>
@@ -813,16 +844,22 @@
         <v>39</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -830,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>39</v>
@@ -839,11 +876,11 @@
         <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -857,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -871,11 +908,11 @@
         <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -897,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -911,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -948,7 +985,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -981,7 +1018,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1054,10 +1091,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>39</v>
@@ -1066,10 +1103,14 @@
         <v>39</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
@@ -1086,7 +1127,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1107,7 +1148,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1128,7 +1169,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1149,7 +1190,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1170,7 +1211,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1191,7 +1232,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1212,7 +1253,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1233,7 +1274,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1254,7 +1295,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1275,7 +1316,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1296,7 +1337,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1317,10 +1358,10 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>39</v>
@@ -1345,7 +1386,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1365,6 +1406,9 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1383,6 +1427,9 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1401,6 +1448,9 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1419,6 +1469,9 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1437,6 +1490,9 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1455,6 +1511,9 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1473,6 +1532,9 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1491,6 +1553,9 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1508,7 +1573,10 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1526,16 +1594,28 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="7:23" x14ac:dyDescent="0.25">
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="S34" s="3"/>
@@ -1544,7 +1624,10 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1558,7 +1641,7 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1572,7 +1655,7 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1586,7 +1669,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1600,7 +1683,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1614,7 +1697,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1628,7 +1711,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1642,7 +1725,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1656,7 +1739,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1670,7 +1753,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1684,7 +1767,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1698,7 +1781,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1712,7 +1795,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1726,7 +1809,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="7:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1769,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,12 +2037,12 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1967,62 +2050,62 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2030,7 +2113,57 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2053,11 +2186,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2344,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2226,7 +2359,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2243,62 +2376,62 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -2315,7 +2448,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -2328,6 +2461,56 @@
       </c>
       <c r="G24" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2353,25 +2536,44 @@
   <dimension ref="A1:AK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="211.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:34" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="13" t="s">
         <v>32</v>
       </c>
@@ -2384,71 +2586,73 @@
       <c r="G1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>40</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>44</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
+      <c r="AA1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2468,7 +2672,9 @@
         <v>36</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2497,7 +2703,9 @@
         <v>36</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2526,7 +2734,9 @@
         <v>36</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2555,8 +2765,12 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2576,7 +2790,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="7"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2593,18 +2809,10 @@
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="I7" s="7"/>
       <c r="J7" s="5" t="s">
@@ -2614,7 +2822,9 @@
         <v>36</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2628,50 +2838,28 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2682,11 +2870,15 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="7"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2715,21 +2907,21 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -2737,7 +2929,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -2760,7 +2952,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2768,7 +2960,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2780,7 +2974,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2788,7 +2982,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2800,7 +2996,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2808,7 +3004,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2820,7 +3018,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2828,7 +3026,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2840,7 +3040,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2848,10 +3048,14 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2861,7 +3065,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2869,10 +3073,14 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2882,7 +3090,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2890,7 +3098,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2903,7 +3113,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2911,7 +3121,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2924,7 +3136,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2945,7 +3157,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2953,7 +3165,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2966,7 +3180,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2992,7 +3206,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -3012,6 +3226,9 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3021,7 +3238,9 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3030,6 +3249,9 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3039,7 +3261,9 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3048,6 +3272,9 @@
       <c r="AB26" s="11"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3057,7 +3284,9 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3066,6 +3295,9 @@
       <c r="AC27" s="11"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3075,7 +3307,9 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3084,6 +3318,9 @@
       <c r="AD28" s="11"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3093,7 +3330,9 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3102,6 +3341,9 @@
       <c r="AE29" s="11"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3111,7 +3353,9 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3120,6 +3364,9 @@
       <c r="AF30" s="11"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3129,7 +3376,9 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3138,6 +3387,9 @@
       <c r="AG31" s="11"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3147,7 +3399,9 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3155,7 +3409,10 @@
       <c r="R32" s="3"/>
       <c r="AH32" s="11"/>
     </row>
-    <row r="33" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3165,7 +3422,9 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -3173,7 +3432,10 @@
       <c r="R33" s="3"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3191,7 +3453,7 @@
       <c r="R34" s="3"/>
       <c r="AJ34" s="11"/>
     </row>
-    <row r="35" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3209,7 +3471,7 @@
       <c r="R35" s="3"/>
       <c r="AK35" s="11"/>
     </row>
-    <row r="36" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3226,7 +3488,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3243,7 +3505,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3260,7 +3522,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3277,7 +3539,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3294,7 +3556,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3311,7 +3573,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3328,7 +3590,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3345,7 +3607,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3362,7 +3624,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3379,7 +3641,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3396,7 +3658,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3413,7 +3675,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>

--- a/sourcematrix.xlsx
+++ b/sourcematrix.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Data Pulls" sheetId="4" r:id="rId2"/>
     <sheet name="Data Matrix" sheetId="3" r:id="rId3"/>
     <sheet name="Reference Matrix" sheetId="2" r:id="rId4"/>
+    <sheet name="File Types" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="91">
   <si>
     <t>Source Name</t>
   </si>
@@ -203,9 +204,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -263,9 +261,6 @@
     <t>Cron</t>
   </si>
   <si>
-    <t>vchivamp01</t>
-  </si>
-  <si>
     <t>MalwareURL</t>
   </si>
   <si>
@@ -306,6 +301,42 @@
   </si>
   <si>
     <t>Scumware</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>Windows Host File</t>
+  </si>
+  <si>
+    <t>Host Deny File</t>
+  </si>
+  <si>
+    <t>Iptables</t>
+  </si>
+  <si>
+    <t>SIEM domains</t>
+  </si>
+  <si>
+    <t>SIEM IPv4</t>
+  </si>
+  <si>
+    <t>vchivamp</t>
   </si>
 </sst>
 </file>
@@ -407,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,6 +476,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,15 +767,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -751,7 +788,8 @@
     <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -762,63 +800,72 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="B2" s="19">
+        <v>41827</v>
+      </c>
+      <c r="C2" s="19">
+        <v>41828</v>
+      </c>
+      <c r="D2" s="19">
+        <v>41828</v>
+      </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -829,13 +876,13 @@
         <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>39</v>
@@ -845,29 +892,39 @@
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="19">
+        <v>41827</v>
+      </c>
+      <c r="C3" s="19">
+        <v>41828</v>
+      </c>
+      <c r="D3" s="19">
+        <v>41828</v>
+      </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>39</v>
@@ -876,25 +933,39 @@
         <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>46</v>
+      <c r="B4" s="19">
+        <v>41827</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -908,11 +979,13 @@
         <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="K4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -928,13 +1001,19 @@
       <c r="Q4" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="R4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>46</v>
+      <c r="B5" s="19">
+        <v>41827</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -948,7 +1027,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -984,8 +1063,8 @@
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>46</v>
+      <c r="B7" s="19">
+        <v>41826</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1017,8 +1096,8 @@
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>46</v>
+      <c r="B8" s="19">
+        <v>41826</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1091,10 +1170,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="20">
+        <v>41827</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>39</v>
@@ -1103,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>38</v>
@@ -1127,7 +1206,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1148,7 +1227,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1169,7 +1248,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1190,7 +1269,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1211,7 +1290,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1232,7 +1311,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1253,7 +1332,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1274,7 +1353,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1295,7 +1374,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1316,7 +1395,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1337,7 +1416,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1358,10 +1437,10 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="B23" s="20">
+        <v>41826</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>39</v>
@@ -1386,7 +1465,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1407,7 +1486,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1428,7 +1507,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1449,7 +1528,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1470,7 +1549,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1491,7 +1570,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1512,7 +1591,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1533,7 +1612,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1554,7 +1633,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1575,7 +1654,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1596,25 +1675,25 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="20">
+        <v>41827</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -1626,7 +1705,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1845,7 +1924,7 @@
     <hyperlink ref="A24" r:id="rId11" display="VirusTOtal.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
@@ -2037,12 +2116,12 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -2050,62 +2129,62 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2113,57 +2192,57 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2359,7 +2438,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2376,62 +2455,62 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -2448,7 +2527,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -2465,52 +2544,52 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2602,49 +2681,49 @@
         <v>44</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="O1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="V1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="Y1" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="AB1" s="16"/>
       <c r="AC1" s="16"/>
@@ -2907,7 +2986,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2929,7 +3008,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -2952,7 +3031,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2974,7 +3053,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2996,7 +3075,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3018,7 +3097,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3040,7 +3119,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3065,7 +3144,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3090,7 +3169,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3113,7 +3192,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3136,7 +3215,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -3157,7 +3236,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3180,7 +3259,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3206,7 +3285,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -3227,7 +3306,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3250,7 +3329,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3273,7 +3352,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3296,7 +3375,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3319,7 +3398,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3342,7 +3421,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3365,7 +3444,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3388,7 +3467,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3411,7 +3490,7 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3434,7 +3513,7 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -4136,4 +4215,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sourcematrix.xlsx
+++ b/sourcematrix.xlsx
@@ -334,9 +334,6 @@
     <t>SIEM IPv4</t>
   </si>
   <si>
-    <t>vchivamp</t>
-  </si>
-  <si>
     <t>Data check</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>AS#</t>
+  </si>
+  <si>
+    <t>collector</t>
   </si>
 </sst>
 </file>
@@ -826,15 +826,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -921,14 +921,12 @@
         <v>41827</v>
       </c>
       <c r="C2" s="23">
+        <v>41828</v>
+      </c>
+      <c r="D2" s="23">
         <v>41827</v>
       </c>
-      <c r="D2" s="23">
-        <v>41828</v>
-      </c>
-      <c r="E2" s="23">
-        <v>41828</v>
-      </c>
+      <c r="E2" s="23"/>
       <c r="F2" t="s">
         <v>3</v>
       </c>
@@ -978,14 +976,12 @@
         <v>41827</v>
       </c>
       <c r="C3" s="23">
+        <v>41828</v>
+      </c>
+      <c r="D3" s="23">
         <v>41827</v>
       </c>
-      <c r="D3" s="23">
-        <v>41828</v>
-      </c>
-      <c r="E3" s="23">
-        <v>41828</v>
-      </c>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
         <v>3</v>
       </c>
@@ -1034,9 +1030,9 @@
         <v>41827</v>
       </c>
       <c r="C4" s="23">
-        <v>41827</v>
-      </c>
-      <c r="D4" s="24"/>
+        <v>41838</v>
+      </c>
+      <c r="D4" s="23"/>
       <c r="E4" s="24"/>
       <c r="F4" t="s">
         <v>3</v>
@@ -1084,8 +1080,10 @@
       <c r="B5" s="23">
         <v>41837</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="23">
+        <v>41838</v>
+      </c>
+      <c r="D5" s="23"/>
       <c r="E5" s="24"/>
       <c r="F5" t="s">
         <v>3</v>
@@ -1179,8 +1177,10 @@
       <c r="B7" s="23">
         <v>41837</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="23">
+        <v>41838</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="24"/>
       <c r="F7" t="s">
         <v>41</v>
@@ -1230,8 +1230,10 @@
       <c r="B8" s="23">
         <v>41837</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="23">
+        <v>41838</v>
+      </c>
+      <c r="D8" s="23"/>
       <c r="E8" s="24"/>
       <c r="H8" s="20" t="s">
         <v>38</v>
@@ -1370,8 +1372,8 @@
       <c r="B11" s="22">
         <v>41837</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3"/>
       <c r="H11" s="19" t="s">
         <v>39</v>
@@ -1720,8 +1722,8 @@
       <c r="B23" s="22">
         <v>41826</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="3"/>
       <c r="H23" s="21">
         <v>41826</v>
@@ -1992,7 +1994,7 @@
       <c r="B34" s="21">
         <v>41837</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="H34" s="19" t="s">
         <v>39</v>
       </c>
@@ -2078,7 +2080,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="21">
         <v>41831</v>
@@ -2123,7 +2125,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="21">
         <v>41831</v>
@@ -2168,7 +2170,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="21">
         <v>41831</v>
@@ -2213,7 +2215,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="21">
         <v>41831</v>
@@ -2258,7 +2260,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="21">
         <v>41831</v>
@@ -2303,7 +2305,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="21">
         <v>41831</v>
@@ -2348,7 +2350,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="21">
         <v>41831</v>
@@ -2393,7 +2395,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="21">
         <v>41831</v>
@@ -4933,7 +4935,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -4945,13 +4947,13 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
